--- a/backend/db/data/orden.xlsx
+++ b/backend/db/data/orden.xlsx
@@ -140,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -156,10 +156,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -185,23 +189,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -445,13 +448,13 @@
       <c r="B2" s="3">
         <v>1.238025997E9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
         <v>44520.0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>44488.0</v>
       </c>
     </row>
@@ -459,16 +462,16 @@
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
         <v>44515.0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>44482.0</v>
       </c>
     </row>
@@ -476,16 +479,16 @@
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>44508.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>44482.0</v>
       </c>
     </row>
@@ -493,16 +496,16 @@
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
         <v>44550.0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>44482.0</v>
       </c>
     </row>
@@ -510,16 +513,16 @@
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
         <v>44520.0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>44488.0</v>
       </c>
     </row>
@@ -527,16 +530,16 @@
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>44515.0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>44482.0</v>
       </c>
     </row>
@@ -544,16 +547,16 @@
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
         <v>44508.0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>44482.0</v>
       </c>
     </row>
@@ -564,13 +567,13 @@
       <c r="B9" s="3">
         <v>1.238023236E9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
         <v>44550.0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>44482.0</v>
       </c>
     </row>
@@ -581,13 +584,13 @@
       <c r="B10" s="3">
         <v>1.238022781E9</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
         <v>44520.0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>44488.0</v>
       </c>
     </row>
@@ -595,16 +598,16 @@
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>44515.0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>44482.0</v>
       </c>
     </row>
@@ -612,16 +615,16 @@
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
         <v>44508.0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>44482.0</v>
       </c>
     </row>
@@ -629,16 +632,16 @@
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
         <v>44550.0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>44482.0</v>
       </c>
     </row>
@@ -646,16 +649,16 @@
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7">
         <v>44473.0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>44508.0</v>
       </c>
     </row>
@@ -666,13 +669,13 @@
       <c r="B15" s="3">
         <v>1.238022071E9</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>44489.0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>44537.0</v>
       </c>
     </row>
@@ -680,16 +683,16 @@
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
         <v>44481.0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>44548.0</v>
       </c>
     </row>
@@ -697,16 +700,16 @@
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8">
-        <v>44482.0</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44482.0</v>
+      </c>
+      <c r="E17" s="7">
         <v>44515.0</v>
       </c>
     </row>
@@ -714,16 +717,16 @@
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="8">
-        <v>44482.0</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="7">
+        <v>44482.0</v>
+      </c>
+      <c r="E18" s="7">
         <v>44498.0</v>
       </c>
     </row>
@@ -734,13 +737,13 @@
       <c r="B19" s="3">
         <v>1.238020983E9</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8">
-        <v>44482.0</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7">
+        <v>44482.0</v>
+      </c>
+      <c r="E19" s="7">
         <v>44508.0</v>
       </c>
     </row>
@@ -751,13 +754,13 @@
       <c r="B20" s="3">
         <v>1.238020651E9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8">
-        <v>44482.0</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="D20" s="7">
+        <v>44482.0</v>
+      </c>
+      <c r="E20" s="7">
         <v>44550.0</v>
       </c>
     </row>
@@ -765,16 +768,16 @@
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>44482.0</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7">
+        <v>44482.0</v>
+      </c>
+      <c r="E21" s="7">
         <v>44547.0</v>
       </c>
     </row>
@@ -782,16 +785,16 @@
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>44483.0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>44513.0</v>
       </c>
     </row>
@@ -799,16 +802,16 @@
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
         <v>44483.0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>44553.0</v>
       </c>
     </row>
@@ -816,16 +819,16 @@
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
         <v>44487.0</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>44519.0</v>
       </c>
     </row>
@@ -833,16 +836,16 @@
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
         <v>44487.0</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>44519.0</v>
       </c>
     </row>
@@ -850,16 +853,16 @@
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>44487.0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>44522.0</v>
       </c>
     </row>
@@ -870,13 +873,13 @@
       <c r="B27" s="3">
         <v>1.238020145E9</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
         <v>44487.0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>44512.0</v>
       </c>
     </row>
@@ -884,16 +887,16 @@
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>44487.0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>44546.0</v>
       </c>
     </row>
@@ -901,16 +904,16 @@
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="7">
         <v>44487.0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>44552.0</v>
       </c>
     </row>
@@ -918,16 +921,16 @@
       <c r="A30" s="1">
         <v>29.0</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="7">
         <v>44488.0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>44520.0</v>
       </c>
     </row>
@@ -938,13 +941,13 @@
       <c r="B31" s="3">
         <v>1.238019306E9</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
         <v>44488.0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>44518.0</v>
       </c>
     </row>
@@ -952,16 +955,16 @@
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7">
         <v>44488.0</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>44513.0</v>
       </c>
     </row>
@@ -972,13 +975,13 @@
       <c r="B33" s="3">
         <v>1.238017717E9</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7">
         <v>44489.0</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>44517.0</v>
       </c>
     </row>
@@ -986,16 +989,16 @@
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7">
         <v>44489.0</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>44515.0</v>
       </c>
     </row>
@@ -1003,16 +1006,16 @@
       <c r="A35" s="1">
         <v>34.0</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7">
         <v>44489.0</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>44550.0</v>
       </c>
     </row>
@@ -1020,16 +1023,16 @@
       <c r="A36" s="1">
         <v>35.0</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="7">
         <v>44490.0</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>44553.0</v>
       </c>
     </row>
@@ -1037,16 +1040,16 @@
       <c r="A37" s="1">
         <v>36.0</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7">
         <v>44490.0</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>44551.0</v>
       </c>
     </row>
@@ -1054,16 +1057,16 @@
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>44494.0</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>44529.0</v>
       </c>
     </row>
@@ -1074,13 +1077,13 @@
       <c r="B39" s="3">
         <v>1.238016017E9</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7">
         <v>44494.0</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>44528.0</v>
       </c>
     </row>
@@ -1088,16 +1091,16 @@
       <c r="A40" s="1">
         <v>39.0</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="8">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7">
         <v>44494.0</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>44529.0</v>
       </c>
     </row>
@@ -1108,13 +1111,13 @@
       <c r="B41" s="3">
         <v>1.238015828E9</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7">
         <v>44494.0</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>44546.0</v>
       </c>
     </row>
@@ -1122,16 +1125,16 @@
       <c r="A42" s="1">
         <v>41.0</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="8">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7">
         <v>44495.0</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>44550.0</v>
       </c>
     </row>
@@ -1142,13 +1145,13 @@
       <c r="B43" s="3">
         <v>1.238015034E9</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="7">
         <v>44496.0</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>44531.0</v>
       </c>
     </row>
@@ -1156,16 +1159,16 @@
       <c r="A44" s="1">
         <v>43.0</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="8">
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="7">
         <v>44496.0</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>44545.0</v>
       </c>
     </row>
@@ -1173,16 +1176,16 @@
       <c r="A45" s="1">
         <v>44.0</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="7">
         <v>44499.0</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>44553.0</v>
       </c>
     </row>
